--- a/Initial_model.xlsx
+++ b/Initial_model.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Fields_By_Dataset" sheetId="2" r:id="rId2"/>
+    <sheet name="Dates_By_Dataset" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="57">
   <si>
     <t>geographic</t>
   </si>
@@ -157,13 +157,47 @@
   </si>
   <si>
     <t>nta_name</t>
+  </si>
+  <si>
+    <t>2014, 2015</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>['02', '01', '09', '04', '05', '03', '06', '08', '07']</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>[ '201404', '201405',  '201406',  '201407', '201408', '201409', '201501', '201502',  '201503',  '201504', '201505', '201506']</t>
+  </si>
+  <si>
+    <t>YearsMonth</t>
+  </si>
+  <si>
+    <t>['04', '05', '06', '07','08', '09',]</t>
+  </si>
+  <si>
+    <t>[ '201404', '201405',  '201406',  '201407', '201408', '201409']</t>
+  </si>
+  <si>
+    <t>['201501', '201502',  '201503',  '201504', '201505', '201506']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +213,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +243,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,10 +299,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,8 +316,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -768,7 +838,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="4"/>
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
@@ -778,18 +848,18 @@
     <col min="8" max="13" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="3:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="3:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="3:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="3:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="3:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="3:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="3:10" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:10" s="4" customFormat="1"/>
+    <row r="2" spans="3:10" s="4" customFormat="1"/>
+    <row r="3" spans="3:10" s="4" customFormat="1"/>
+    <row r="4" spans="3:10" s="4" customFormat="1"/>
+    <row r="5" spans="3:10" s="4" customFormat="1"/>
+    <row r="6" spans="3:10" s="4" customFormat="1"/>
+    <row r="7" spans="3:10" s="4" customFormat="1"/>
+    <row r="8" spans="3:10" s="4" customFormat="1"/>
+    <row r="9" spans="3:10" s="4" customFormat="1"/>
+    <row r="10" spans="3:10" s="4" customFormat="1"/>
+    <row r="11" spans="3:10" s="4" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="12" spans="3:10">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -803,7 +873,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:10">
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
@@ -811,7 +881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:10">
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -819,7 +889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:10">
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
@@ -827,7 +897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:10" ht="15.75" thickBot="1">
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
@@ -835,57 +905,57 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" ht="15.75" thickBot="1">
       <c r="C17" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="3:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="3:3" s="4" customFormat="1"/>
+    <row r="19" spans="3:3" s="4" customFormat="1"/>
+    <row r="20" spans="3:3" s="4" customFormat="1"/>
+    <row r="21" spans="3:3" s="4" customFormat="1"/>
+    <row r="22" spans="3:3" s="4" customFormat="1"/>
+    <row r="23" spans="3:3" s="4" customFormat="1"/>
+    <row r="24" spans="3:3" s="4" customFormat="1"/>
+    <row r="25" spans="3:3" s="4" customFormat="1"/>
+    <row r="26" spans="3:3" s="4" customFormat="1"/>
+    <row r="27" spans="3:3" s="4" customFormat="1"/>
+    <row r="28" spans="3:3" s="4" customFormat="1"/>
+    <row r="29" spans="3:3" s="4" customFormat="1"/>
+    <row r="30" spans="3:3" s="4" customFormat="1"/>
+    <row r="31" spans="3:3" s="4" customFormat="1"/>
+    <row r="32" spans="3:3" s="4" customFormat="1"/>
+    <row r="33" s="4" customFormat="1"/>
+    <row r="34" s="4" customFormat="1"/>
+    <row r="35" s="4" customFormat="1"/>
+    <row r="36" s="4" customFormat="1"/>
+    <row r="37" s="4" customFormat="1"/>
+    <row r="38" s="4" customFormat="1"/>
+    <row r="39" s="4" customFormat="1"/>
+    <row r="40" s="4" customFormat="1"/>
+    <row r="41" s="4" customFormat="1"/>
+    <row r="42" s="4" customFormat="1"/>
+    <row r="43" s="4" customFormat="1"/>
+    <row r="44" s="4" customFormat="1"/>
+    <row r="45" s="4" customFormat="1"/>
+    <row r="46" s="4" customFormat="1"/>
+    <row r="47" s="4" customFormat="1"/>
+    <row r="48" s="4" customFormat="1"/>
+    <row r="49" s="4" customFormat="1"/>
+    <row r="50" s="4" customFormat="1"/>
+    <row r="51" s="4" customFormat="1"/>
+    <row r="52" s="4" customFormat="1"/>
+    <row r="53" s="4" customFormat="1"/>
+    <row r="54" s="4" customFormat="1"/>
+    <row r="55" s="4" customFormat="1"/>
+    <row r="56" s="4" customFormat="1"/>
+    <row r="57" s="4" customFormat="1"/>
+    <row r="58" s="4" customFormat="1"/>
+    <row r="59" s="4" customFormat="1"/>
+    <row r="60" s="4" customFormat="1"/>
+    <row r="61" s="4" customFormat="1"/>
+    <row r="62" s="4" customFormat="1"/>
+    <row r="63" s="4" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -897,11 +967,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
@@ -909,7 +979,7 @@
     <col min="27" max="48" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="102.75" customHeight="1">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1007,7 +1077,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1021,7 +1091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1038,8 +1108,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:32">
+      <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
@@ -1070,7 +1140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1105,7 +1175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1137,7 +1207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1172,7 +1242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1189,7 +1259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1215,12 +1285,136 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="10"/>
+    <col min="4" max="4" width="36.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="100.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="13">
+        <v>4534327</v>
+      </c>
+      <c r="C2" s="10">
+        <v>2014</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="13">
+        <v>14270479</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="13">
+        <v>3589048</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="13">
+        <v>7554197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="13">
+        <v>7974059</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="E9" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="14"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Initial_model.xlsx
+++ b/Initial_model.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
   <si>
     <t>geographic</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>['201501', '201502',  '201503',  '201504', '201505', '201506']</t>
+  </si>
+  <si>
+    <t>['02', '01', '04', '05', '03', '06']</t>
+  </si>
+  <si>
+    <t>['02', '01', '09', '04', '05', '03', '06', '08', '07', '12']</t>
+  </si>
+  <si>
+    <t>[ '201404', '201405',  '201406',  '201407', '201408', '201409', '201412', '201501', '201502',  '201503',  '201504', '201505', '201506']</t>
   </si>
 </sst>
 </file>
@@ -195,7 +204,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -323,8 +332,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1288,7 +1297,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1296,8 +1305,8 @@
     <col min="1" max="1" width="15.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="10"/>
-    <col min="4" max="4" width="36.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="100.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="106.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
@@ -1339,7 +1348,12 @@
       <c r="B3" s="13">
         <v>14270479</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="C3" s="10">
+        <v>2015</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="E3" s="10" t="s">
         <v>56</v>
       </c>
@@ -1367,6 +1381,15 @@
       </c>
       <c r="B5" s="13">
         <v>7554197</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">

--- a/Initial_model.xlsx
+++ b/Initial_model.xlsx
@@ -195,7 +195,30 @@
     <t>['02', '01', '09', '04', '05', '03', '06', '08', '07', '12']</t>
   </si>
   <si>
-    <t>[ '201404', '201405',  '201406',  '201407', '201408', '201409', '201412', '201501', '201502',  '201503',  '201504', '201505', '201506']</t>
+    <r>
+      <t xml:space="preserve">[ '201404', '201405',  '201406',  '201407', '201408', '201409', </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'201412',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '201501', '201502',  '201503',  '201504', '201505', '201506']</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -206,7 +229,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +258,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>

--- a/Initial_model.xlsx
+++ b/Initial_model.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
   <si>
     <t>geographic</t>
   </si>
@@ -1008,7 +1008,7 @@
   <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1325,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1467,6 +1467,11 @@
       </c>
       <c r="B10" s="14"/>
     </row>
+    <row r="11" spans="1:5">
+      <c r="E11" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Initial_model.xlsx
+++ b/Initial_model.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
   <si>
     <t>geographic</t>
   </si>
@@ -219,6 +219,9 @@
       </rPr>
       <t xml:space="preserve"> '201501', '201502',  '201503',  '201504', '201505', '201506']</t>
     </r>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -1325,150 +1328,163 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="10"/>
-    <col min="4" max="4" width="39.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="106.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="10"/>
+    <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="10"/>
+    <col min="5" max="5" width="39.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="106.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="13">
         <v>4534327</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="13"/>
+      <c r="D2" s="10">
         <v>2014</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="13">
         <v>14270479</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="13"/>
+      <c r="D3" s="10">
         <v>2015</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="13">
         <v>3589048</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="13">
         <v>7554197</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="13">
         <v>7974059</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="14"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="14"/>
+      <c r="F9" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="E11" s="10" t="s">
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="F11" s="10" t="s">
         <v>52</v>
       </c>
     </row>

--- a/Initial_model.xlsx
+++ b/Initial_model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
   <si>
     <t>geographic</t>
   </si>
@@ -221,7 +221,62 @@
     </r>
   </si>
   <si>
-    <t>Total</t>
+    <t>Fuera Ny</t>
+  </si>
+  <si>
+    <t>Total Dataton</t>
+  </si>
+  <si>
+    <t>Inicial</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">['01', '02', '03', '04', '05', '06', '07', '08', '09', </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'10', '11', '12']</t>
+    </r>
+  </si>
+  <si>
+    <t>['201401', '201402', '201403', '201404', '201405', '201406',  '201407', '201408', '201409', '201410', '201411', '201412',  '201501', '201502', '201503', '201504', '201505', '201506', '201507', '201508', '201509', '201510', '201511', '201512']</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>24 Horas</t>
+  </si>
+  <si>
+    <t>No horas</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>INTERSECTION</t>
+  </si>
+  <si>
+    <t>Sumas de archivos limpios</t>
+  </si>
+  <si>
+    <t>Yellows_trips</t>
+  </si>
+  <si>
+    <t>Uber_trips_2014</t>
   </si>
 </sst>
 </file>
@@ -342,11 +397,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,10 +424,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1011,7 +1073,7 @@
   <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1328,77 +1390,117 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="10"/>
-    <col min="5" max="5" width="39.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="106.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="10"/>
+    <col min="3" max="3" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="10"/>
+    <col min="7" max="7" width="46.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="103.7109375" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="I1" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="13">
         <v>4534327</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="10">
+      <c r="C2" s="13">
+        <v>4413714</v>
+      </c>
+      <c r="D2" s="13">
+        <f>B2-C2</f>
+        <v>120613</v>
+      </c>
+      <c r="E2" s="15">
+        <f>D2/B2</f>
+        <v>2.6599978342982323E-2</v>
+      </c>
+      <c r="F2" s="10">
         <v>2014</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="I2" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="13">
         <v>14270479</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="10">
+      <c r="C3" s="13">
+        <v>14270479</v>
+      </c>
+      <c r="D3" s="13">
+        <f t="shared" ref="D3:D6" si="0">B3-C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <f t="shared" ref="E3:E6" si="1">D3/B3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
         <v>2015</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="I3" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
@@ -1406,17 +1508,28 @@
         <v>3589048</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="13">
+        <f t="shared" si="0"/>
+        <v>3589048</v>
+      </c>
+      <c r="E4" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="I4" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
@@ -1424,71 +1537,241 @@
         <v>7554197</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13">
+        <f t="shared" si="0"/>
+        <v>7554197</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="I5" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="13">
         <v>7974059</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="13">
+        <v>7803089</v>
+      </c>
+      <c r="D6" s="13">
+        <f t="shared" si="0"/>
+        <v>170970</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" si="1"/>
+        <v>2.1440774391059809E-2</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="I6" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="25.5">
       <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="14">
+        <v>2190</v>
+      </c>
       <c r="C7" s="14"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="G8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="F9" s="9" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="H9" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="F11" s="10" t="s">
+      <c r="B10" s="14">
+        <v>188</v>
+      </c>
+      <c r="C10" s="14">
+        <v>188</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" ref="E10" si="2">D10/B10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="G11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="19" spans="1:5" ht="25.5">
+      <c r="A19" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="13">
+        <v>975769</v>
+      </c>
+      <c r="C20" s="13">
+        <v>976392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="13">
+        <v>975698</v>
+      </c>
+      <c r="C21" s="13">
+        <v>973346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="13">
+        <v>974832</v>
+      </c>
+      <c r="C22" s="13">
+        <v>973489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="13">
+        <v>974974</v>
+      </c>
+      <c r="C23" s="13">
+        <v>970657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="13">
+        <v>979519</v>
+      </c>
+      <c r="C24" s="13">
+        <v>519832</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="13">
+        <v>980330</v>
+      </c>
+      <c r="C25" s="13">
+        <f>SUM(C20:C24)</f>
+        <v>4413716</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="14">
+        <v>1941967</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="14">
+        <f>SUM(B20:B26)</f>
+        <v>7803089</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
